--- a/data/6dec2023arrhenius.xlsx
+++ b/data/6dec2023arrhenius.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milessmith/Documents/GitHub/mit-tri-robot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A822FF-CFCE-7240-B5E8-FF83681F01D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C635B700-7784-9E4D-81DE-0B168ED5EE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{2D3CA375-1DF3-8941-9C6D-87225ED9D142}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{2D3CA375-1DF3-8941-9C6D-87225ED9D142}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>25 (℃)</t>
   </si>
@@ -73,12 +74,36 @@
   <si>
     <t>3.75 (mol/kg)</t>
   </si>
+  <si>
+    <t>7.00 (mol/kg)</t>
+  </si>
+  <si>
+    <t>High-Throughput Analysis at 25 ℃</t>
+  </si>
+  <si>
+    <t>LiTFSI-PEO</t>
+  </si>
+  <si>
+    <t>LiTFSI-LiClO4-PEO</t>
+  </si>
+  <si>
+    <t>LiClO4-PEO</t>
+  </si>
+  <si>
+    <t>Michael's Analysis</t>
+  </si>
+  <si>
+    <t>Samples Created (mol of salt – LiTFSI - per Kg of PEO)</t>
+  </si>
+  <si>
+    <t>High-Throughput Analysis at 80 ℃</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +123,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -115,16 +153,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,12 +356,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="star"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -365,7 +475,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -462,12 +572,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
@@ -583,7 +691,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -680,7 +788,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -862,7 +970,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="dash"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1507,7 +1615,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1922,6 +2030,85 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-802A-3F42-8D48-602AEB5E06B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.00 (mol/kg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$15:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8723251470000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.09453814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3540164350000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.48E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3100000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5900000000000001E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-802A-3F42-8D48-602AEB5E06B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2256,6 +2443,1884 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Conductivity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Polymer Electrolytes at 25 ℃</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LiTFSI-LiClO4-PEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0699999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3799999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4100000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5499999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8700000000000005E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7599999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6000000000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6500000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5900000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.23E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-032A-FC4F-82F2-030A43FD9EDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LiTFSI-PEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7300000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7899999999999994E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0399999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2400000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0899999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4700000000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-032A-FC4F-82F2-030A43FD9EDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LiClO4-PEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.36E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8500000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6100000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.89E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-032A-FC4F-82F2-030A43FD9EDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LiTFSI-PEO (Stolberg)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.0000000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-032A-FC4F-82F2-030A43FD9EDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LiClO4-PEO (Stolberg)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                  <a:alpha val="39000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999999E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9999999999999996E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0000000000000001E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-032A-FC4F-82F2-030A43FD9EDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="611661408"/>
+        <c:axId val="429856223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="611661408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mol/kg)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429856223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429856223"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductivity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (S/cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611661408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Conductivity of Polymer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Electrolytes at 80 ℃</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LiTFSI-LiClO4-PEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$3:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0399999999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.25E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4499999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.47E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.7650100000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4A0-334C-9E9B-6A97AE44DB19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LiTFSI-PEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>3.9100000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8010300000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>5.1900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>7.1600000000000002E-12</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.3400000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>8.7000000000000001E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4A0-334C-9E9B-6A97AE44DB19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LiClO4-PEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.49E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3399999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3599999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7399999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8099999999999998E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4A0-334C-9E9B-6A97AE44DB19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>LiTFSI-PEO (Stolberg)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$3:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$3:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A4A0-334C-9E9B-6A97AE44DB19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LiClO4-PEO (Stolberg)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$3:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$U$3:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A4A0-334C-9E9B-6A97AE44DB19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="217203136"/>
+        <c:axId val="941538160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="217203136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Concentration (mol/kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="941538160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="941538160"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.01"/>
+          <c:min val="1E-8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conductivity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (S/cm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217203136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2336,6 +4401,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3368,20 +5513,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3409,15 +6586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3437,6 +6614,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>344232</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>356933</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>79918</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC51454F-2A89-2961-417B-1DC0C5498EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144104</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>488929</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F92EE01-9600-C236-C1E1-720287DF58D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14202709" y="3033403"/>
+          <a:ext cx="7787615" cy="4970553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>345767</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>70710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>688669</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>41526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F601885-06E7-799C-F4D5-8AEAB76E800B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14404372" y="9049315"/>
+          <a:ext cx="7785692" cy="6173141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>597687</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>266715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>521487</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>275182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AEEFF6-5534-0FEE-01F2-E595EDA00B7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15456687" y="4724415"/>
+          <a:ext cx="4051300" cy="8467"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>357372</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>149447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428256</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>132907</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE63B497-8E1F-5532-F6E4-CD7BFD02024D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3744,8 +7149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C84FE-865C-A240-BDC2-26CFCC7C4380}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3798,43 +7203,43 @@
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1.0699999999999999E-6</v>
       </c>
       <c r="C2" s="2">
         <v>1.5</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>1.33E-5</v>
       </c>
       <c r="E2" s="2">
         <v>2.25</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>3.2100000000000001E-5</v>
       </c>
       <c r="G2" s="2">
         <v>2.25</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>5.9299999999999998E-5</v>
       </c>
       <c r="K2" s="2">
         <v>3.75</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>6.1600000000000007E-5</v>
       </c>
       <c r="M2" s="2">
         <v>1.5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <v>1.0399999999999999E-11</v>
       </c>
     </row>
@@ -3842,43 +7247,43 @@
       <c r="A3" s="2">
         <v>2.25</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>3.3799999999999998E-6</v>
       </c>
       <c r="C3" s="2">
         <v>1.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>7.9799999999999998E-6</v>
       </c>
       <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>1.7600000000000001E-5</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>3.2400000000000001E-5</v>
       </c>
       <c r="I3" s="2">
         <v>2.25</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>7.7799999999999994E-5</v>
       </c>
       <c r="K3" s="2">
         <v>7</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>2.48E-5</v>
       </c>
       <c r="M3" s="2">
         <v>1.5</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="4">
         <v>1.7600000000000001E-5</v>
       </c>
     </row>
@@ -3886,43 +7291,43 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1.4100000000000001E-6</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>7.43E-6</v>
       </c>
       <c r="E4" s="2">
         <v>1.5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>4.9100000000000001E-5</v>
       </c>
       <c r="G4" s="2">
         <v>1.5</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>7.2299999999999996E-5</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>6.5400000000000004E-5</v>
       </c>
       <c r="K4" s="2">
         <v>2.75</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>5.6199999999999997E-5</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="4">
         <v>8.25E-5</v>
       </c>
     </row>
@@ -3930,43 +7335,43 @@
       <c r="A5" s="2">
         <v>2.25</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>3.5499999999999999E-6</v>
       </c>
       <c r="C5" s="2">
         <v>2.25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>1.5299999999999999E-5</v>
       </c>
       <c r="E5" s="2">
         <v>1.5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>5.0599999999999997E-5</v>
       </c>
       <c r="G5" s="2">
         <v>1.5</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>8.7200000000000005E-5</v>
       </c>
       <c r="I5" s="2">
         <v>2.25</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="K5" s="2">
         <v>3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <v>1.7099999999999999E-5</v>
       </c>
       <c r="M5" s="2">
         <v>2.25</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>8.4499999999999994E-5</v>
       </c>
     </row>
@@ -3974,31 +7379,31 @@
       <c r="A6" s="2">
         <v>1.5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>6.8700000000000005E-7</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>6.2899999999999999E-6</v>
       </c>
       <c r="E6" s="2">
         <v>2.25</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>3.1600000000000002E-5</v>
       </c>
       <c r="G6" s="2">
         <v>2.25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>5.9700000000000001E-5</v>
       </c>
       <c r="I6" s="2">
         <v>1.5</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>8.5900000000000001E-5</v>
       </c>
       <c r="K6" s="1"/>
@@ -4006,7 +7411,7 @@
       <c r="M6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>7.47E-5</v>
       </c>
     </row>
@@ -4014,31 +7419,31 @@
       <c r="A7" s="2">
         <v>1.5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>5.7599999999999997E-7</v>
       </c>
       <c r="C7" s="2">
         <v>2.25</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>1.49E-5</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>1.5500000000000001E-5</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>3.6100000000000003E-5</v>
       </c>
       <c r="I7" s="2">
         <v>1.5</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>8.4699999999999999E-5</v>
       </c>
       <c r="K7" s="1"/>
@@ -4054,7 +7459,7 @@
       <c r="A8" s="2">
         <v>2.75</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>8.6000000000000002E-7</v>
       </c>
       <c r="C8" s="1"/>
@@ -4062,7 +7467,7 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>2.7E-6</v>
       </c>
       <c r="G8" s="1"/>
@@ -4078,7 +7483,7 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>1.6500000000000001E-7</v>
       </c>
       <c r="C9" s="1"/>
@@ -4086,7 +7491,7 @@
       <c r="E9" s="2">
         <v>2.75</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1.13E-5</v>
       </c>
       <c r="G9" s="1"/>
@@ -4102,7 +7507,7 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>1.5900000000000001E-7</v>
       </c>
       <c r="C10" s="1"/>
@@ -4110,7 +7515,7 @@
       <c r="E10" s="2">
         <v>7</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>3.3100000000000001E-6</v>
       </c>
       <c r="G10" s="1"/>
@@ -4126,7 +7531,7 @@
       <c r="A11" s="2">
         <v>3.75</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>7.23E-7</v>
       </c>
       <c r="C11" s="1"/>
@@ -4134,7 +7539,7 @@
       <c r="E11" s="2">
         <v>3.75</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>1.15E-5</v>
       </c>
       <c r="G11" s="1"/>
@@ -4209,8 +7614,12 @@
       <c r="J14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
@@ -4218,22 +7627,22 @@
       <c r="A15" s="2">
         <v>3.0016509079999998</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>7.2299999999999996E-5</v>
       </c>
       <c r="C15" s="1">
         <v>2.9141774730000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>7.7799999999999994E-5</v>
       </c>
       <c r="E15" s="1">
         <v>3.3540164350000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>8.6000000000000002E-7</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>5.9299999999999998E-5</v>
       </c>
       <c r="H15" s="1">
@@ -4242,34 +7651,38 @@
       <c r="I15" s="1">
         <v>2.8723251470000002</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>6.1600000000000007E-5</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="K15" s="1">
+        <v>2.8723251470000002</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.48E-5</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>8.7200000000000005E-5</v>
       </c>
       <c r="C16" s="1">
         <v>3.0016509079999998</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E16" s="1">
         <v>3.09453814</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>1.13E-5</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>3.2400000000000001E-5</v>
       </c>
       <c r="H16" s="1">
@@ -4278,34 +7691,38 @@
       <c r="I16" s="1">
         <v>3.09453814</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>1.15E-5</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="1">
+        <v>3.09453814</v>
+      </c>
+      <c r="L16" s="5">
+        <v>3.3100000000000001E-6</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>2.91</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>8.5900000000000001E-5</v>
       </c>
       <c r="C17" s="1">
         <v>2.9141774730000001</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="E17" s="1">
         <v>2.8723251470000002</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>5.6199999999999997E-5</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>6.5400000000000004E-5</v>
       </c>
       <c r="H17" s="1">
@@ -4314,30 +7731,34 @@
       <c r="I17" s="1">
         <v>3.3540164350000001</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>7.23E-7</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="K17" s="1">
+        <v>3.3540164350000001</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1.5900000000000001E-7</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>2.91</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>8.4699999999999999E-5</v>
       </c>
       <c r="C18" s="1">
         <v>3.0016509079999998</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>5.9700000000000001E-5</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>3.6100000000000003E-5</v>
       </c>
       <c r="H18" s="1">
@@ -4351,21 +7772,21 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>2.83</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>1.0399999999999999E-11</v>
       </c>
       <c r="C19" s="1">
         <v>3.3540164350000001</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>3.3799999999999998E-6</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>1.0699999999999999E-6</v>
       </c>
       <c r="H19" s="1">
@@ -4379,21 +7800,21 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>2.83</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>1.7600000000000001E-5</v>
       </c>
       <c r="C20" s="1">
         <v>3.09453814</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>3.2100000000000001E-5</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>1.7600000000000001E-5</v>
       </c>
       <c r="H20" s="1">
@@ -4407,21 +7828,21 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>3.19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>1.33E-5</v>
       </c>
       <c r="C21" s="1">
         <v>3.1933578159999998</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>1.5299999999999999E-5</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>7.43E-6</v>
       </c>
       <c r="H21" s="1">
@@ -4435,21 +7856,21 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>3.19</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>7.9799999999999998E-6</v>
       </c>
       <c r="C22" s="1">
         <v>2.831657936</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>8.4499999999999994E-5</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>8.25E-5</v>
       </c>
       <c r="H22" s="1">
@@ -4463,21 +7884,21 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>3.09</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="5">
         <v>4.9100000000000001E-5</v>
       </c>
       <c r="C23" s="1">
         <v>3.3540164350000001</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>3.5499999999999999E-6</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>1.4100000000000001E-6</v>
       </c>
       <c r="H23" s="1">
@@ -4491,21 +7912,21 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>3.09</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <v>5.0599999999999997E-5</v>
       </c>
       <c r="C24" s="1">
         <v>3.09453814</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>3.1600000000000002E-5</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>1.5500000000000001E-5</v>
       </c>
       <c r="H24" s="1">
@@ -4519,10 +7940,10 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>3.35</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>6.8700000000000005E-7</v>
       </c>
       <c r="C25" s="1">
@@ -4533,7 +7954,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>7.47E-5</v>
       </c>
       <c r="H25" s="1">
@@ -4547,21 +7968,21 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>3.35</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>5.7599999999999997E-7</v>
       </c>
       <c r="C26" s="1">
         <v>3.1933578159999998</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>1.49E-5</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>6.2899999999999999E-6</v>
       </c>
       <c r="H26" s="1">
@@ -4581,7 +8002,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>2.7E-6</v>
       </c>
       <c r="H27" s="1">
@@ -4601,7 +8022,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>1.6500000000000001E-7</v>
       </c>
       <c r="H28" s="1">
@@ -4621,7 +8042,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>1.7099999999999999E-5</v>
       </c>
       <c r="H29" s="1">
@@ -4637,4 +8058,607 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0918A75F-EC1C-4C4D-AD50-3FC7D16C0214}">
+  <dimension ref="A1:W21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="L1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="N2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.7300000000000001E-6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0699999999999999E-6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.36E-7</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.4999999999999999E-7</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1.49E-5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1.0399999999999999E-11</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>3.9100000000000002E-5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1.5E-5</v>
+      </c>
+      <c r="T3">
+        <v>0.2</v>
+      </c>
+      <c r="U3" s="3">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9.7899999999999994E-6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.3799999999999998E-6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.8500000000000001E-8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8.9999999999999999E-8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="M4" s="4">
+        <v>7.3399999999999995E-5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1.7600000000000001E-5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.8010300000000003E-4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="S4" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.0399999999999998E-6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.4100000000000001E-6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.6100000000000001E-7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="M5" s="4">
+        <v>8.3599999999999999E-5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>8.25E-5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>5.1900000000000001E-5</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="S5" s="3">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.2400000000000001E-6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.5499999999999999E-6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.89E-7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="4">
+        <v>8.7399999999999997E-5</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="O6" s="4">
+        <v>8.4499999999999994E-5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>7.1600000000000002E-12</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="S6" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4.0899999999999998E-6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6.8700000000000005E-7</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3.8099999999999998E-5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>7.47E-5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1.3400000000000001E-6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>3</v>
+      </c>
+      <c r="U7" s="3">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.4700000000000001E-5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5.7599999999999997E-7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2.7650100000000001E-4</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>8.7000000000000001E-5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="T8" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8.6000000000000002E-7</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <v>4.75</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I9">
+        <v>4.75</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="R9">
+        <v>4.75</v>
+      </c>
+      <c r="S9" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="T9">
+        <v>4.75</v>
+      </c>
+      <c r="U9" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.6500000000000001E-7</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3E-9</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="T10" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.5900000000000001E-7</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="R11" s="2">
+        <v>7</v>
+      </c>
+      <c r="S11" s="3">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7.23E-7</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="19" spans="18:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="18:23" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="12"/>
+    </row>
+    <row r="21" spans="18:23" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="S21" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="T21" s="9">
+        <v>2.25</v>
+      </c>
+      <c r="U21" s="9">
+        <v>3</v>
+      </c>
+      <c r="V21" s="9">
+        <v>4.75</v>
+      </c>
+      <c r="W21" s="9">
+        <v>5.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>